--- a/DATOS_VENTA_23.xlsx
+++ b/DATOS_VENTA_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\ESPECIALIZACION DATA ANALYTICS\dataops\trabajo_final_dataops2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE79A0B5-EEEA-41E0-8D3D-78FB8583F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DAFD3E-94EC-47F0-B2F4-697D63B8608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{298EFFE4-52CD-4160-8C02-56F0080C6DFB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>Puno</t>
+  </si>
+  <si>
+    <t>CERDO RANGO B</t>
+  </si>
+  <si>
+    <t>CERDO RANGO A</t>
+  </si>
+  <si>
+    <t>CERDO RANGO C</t>
+  </si>
+  <si>
+    <t>CERDO RANGO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERDO RANGO E </t>
   </si>
 </sst>
 </file>
@@ -532,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65C7570-2AC3-4E43-BDA3-CFBB69971771}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,6 +824,7010 @@
         <v>196</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44931</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44935</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44939</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44965</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44970</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44971</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44974</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B55" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B57" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B63" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B64" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B65" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B67" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B68" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B69" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B71" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44996</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B74" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B77" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>45000</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>45001</v>
+      </c>
+      <c r="B79" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>45002</v>
+      </c>
+      <c r="B80" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>45003</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>45005</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>45005</v>
+      </c>
+      <c r="B83" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>45006</v>
+      </c>
+      <c r="B84" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B86" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>45009</v>
+      </c>
+      <c r="B87" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>45010</v>
+      </c>
+      <c r="B88" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B89" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>45013</v>
+      </c>
+      <c r="B90" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>45013</v>
+      </c>
+      <c r="B91" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>45013</v>
+      </c>
+      <c r="B92" s="4">
+        <v>4360</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B93" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B94" s="4">
+        <v>4360</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>45015</v>
+      </c>
+      <c r="B95" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>45015</v>
+      </c>
+      <c r="B96" s="4">
+        <v>4360</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B97" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B98" s="4">
+        <v>4360</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B99" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>45018</v>
+      </c>
+      <c r="B100" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>45018</v>
+      </c>
+      <c r="B101" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>45019</v>
+      </c>
+      <c r="B102" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>45019</v>
+      </c>
+      <c r="B103" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>45020</v>
+      </c>
+      <c r="B104" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>45020</v>
+      </c>
+      <c r="B105" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B106" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B107" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>45022</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>45023</v>
+      </c>
+      <c r="B109" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>45023</v>
+      </c>
+      <c r="B110" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>45023</v>
+      </c>
+      <c r="B111" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>45026</v>
+      </c>
+      <c r="B112" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>45026</v>
+      </c>
+      <c r="B113" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>45026</v>
+      </c>
+      <c r="B114" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>45027</v>
+      </c>
+      <c r="B115" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>45028</v>
+      </c>
+      <c r="B116" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>45028</v>
+      </c>
+      <c r="B117" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>45029</v>
+      </c>
+      <c r="B118" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>45029</v>
+      </c>
+      <c r="B119" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>45030</v>
+      </c>
+      <c r="B120" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>45030</v>
+      </c>
+      <c r="B121" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>45031</v>
+      </c>
+      <c r="B122" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>45031</v>
+      </c>
+      <c r="B123" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>45031</v>
+      </c>
+      <c r="B124" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>45033</v>
+      </c>
+      <c r="B125" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>45033</v>
+      </c>
+      <c r="B126" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>45033</v>
+      </c>
+      <c r="B127" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>45034</v>
+      </c>
+      <c r="B128" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>45034</v>
+      </c>
+      <c r="B129" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B130" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B131" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B132" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>45036</v>
+      </c>
+      <c r="B133" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>45036</v>
+      </c>
+      <c r="B134" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>45037</v>
+      </c>
+      <c r="B135" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>45037</v>
+      </c>
+      <c r="B136" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>45038</v>
+      </c>
+      <c r="B137" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>45038</v>
+      </c>
+      <c r="B138" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>45040</v>
+      </c>
+      <c r="B139" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>45040</v>
+      </c>
+      <c r="B140" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>45041</v>
+      </c>
+      <c r="B141" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>45041</v>
+      </c>
+      <c r="B142" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>45042</v>
+      </c>
+      <c r="B143" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>45042</v>
+      </c>
+      <c r="B144" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>45042</v>
+      </c>
+      <c r="B145" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>45043</v>
+      </c>
+      <c r="B146" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>45043</v>
+      </c>
+      <c r="B147" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>45043</v>
+      </c>
+      <c r="B148" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>45043</v>
+      </c>
+      <c r="B149" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>45044</v>
+      </c>
+      <c r="B150" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>45044</v>
+      </c>
+      <c r="B151" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>45044</v>
+      </c>
+      <c r="B152" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>45045</v>
+      </c>
+      <c r="B153" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>45045</v>
+      </c>
+      <c r="B154" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>45045</v>
+      </c>
+      <c r="B155" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>45048</v>
+      </c>
+      <c r="B156" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>45048</v>
+      </c>
+      <c r="B157" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>45048</v>
+      </c>
+      <c r="B158" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B159" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B160" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B161" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>45050</v>
+      </c>
+      <c r="B162" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>45050</v>
+      </c>
+      <c r="B163" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>45050</v>
+      </c>
+      <c r="B164" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>45051</v>
+      </c>
+      <c r="B165" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>45051</v>
+      </c>
+      <c r="B166" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>45052</v>
+      </c>
+      <c r="B167" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>45052</v>
+      </c>
+      <c r="B168" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>45053</v>
+      </c>
+      <c r="B169" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>45053</v>
+      </c>
+      <c r="B170" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>45053</v>
+      </c>
+      <c r="B171" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>45054</v>
+      </c>
+      <c r="B172" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>45054</v>
+      </c>
+      <c r="B173" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>45054</v>
+      </c>
+      <c r="B174" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>45055</v>
+      </c>
+      <c r="B175" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>45055</v>
+      </c>
+      <c r="B176" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>45055</v>
+      </c>
+      <c r="B177" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B178" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B179" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B180" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>45057</v>
+      </c>
+      <c r="B181" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>45057</v>
+      </c>
+      <c r="B182" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>45058</v>
+      </c>
+      <c r="B183" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>45058</v>
+      </c>
+      <c r="B184" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>45059</v>
+      </c>
+      <c r="B185" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>45059</v>
+      </c>
+      <c r="B186" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>45059</v>
+      </c>
+      <c r="B187" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B188" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B189" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B190" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B191" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B192" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B193" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>45064</v>
+      </c>
+      <c r="B194" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>45064</v>
+      </c>
+      <c r="B195" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>45065</v>
+      </c>
+      <c r="B196" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>45065</v>
+      </c>
+      <c r="B197" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>45066</v>
+      </c>
+      <c r="B198" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>45068</v>
+      </c>
+      <c r="B199" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>45068</v>
+      </c>
+      <c r="B200" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>45068</v>
+      </c>
+      <c r="B201" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>45069</v>
+      </c>
+      <c r="B202" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>45069</v>
+      </c>
+      <c r="B203" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B204" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B205" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B206" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>45071</v>
+      </c>
+      <c r="B207" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>45071</v>
+      </c>
+      <c r="B208" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>45072</v>
+      </c>
+      <c r="B209" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>45072</v>
+      </c>
+      <c r="B210" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>45075</v>
+      </c>
+      <c r="B211" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>45075</v>
+      </c>
+      <c r="B212" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E212" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>45075</v>
+      </c>
+      <c r="B213" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>45076</v>
+      </c>
+      <c r="B214" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>45076</v>
+      </c>
+      <c r="B215" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>45076</v>
+      </c>
+      <c r="B216" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B217" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B218" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B219" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B220" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B221" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>45079</v>
+      </c>
+      <c r="B222" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>45080</v>
+      </c>
+      <c r="B223" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>45082</v>
+      </c>
+      <c r="B224" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>45082</v>
+      </c>
+      <c r="B225" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>45082</v>
+      </c>
+      <c r="B226" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>45082</v>
+      </c>
+      <c r="B227" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>45083</v>
+      </c>
+      <c r="B228" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>45083</v>
+      </c>
+      <c r="B229" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>45084</v>
+      </c>
+      <c r="B230" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>45084</v>
+      </c>
+      <c r="B231" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B232" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B233" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B234" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B235" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>45086</v>
+      </c>
+      <c r="B236" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>45087</v>
+      </c>
+      <c r="B237" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>45087</v>
+      </c>
+      <c r="B238" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>45088</v>
+      </c>
+      <c r="B239" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>45088</v>
+      </c>
+      <c r="B240" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>45089</v>
+      </c>
+      <c r="B241" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>45089</v>
+      </c>
+      <c r="B242" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>45089</v>
+      </c>
+      <c r="B243" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>45089</v>
+      </c>
+      <c r="B244" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>45090</v>
+      </c>
+      <c r="B245" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>45090</v>
+      </c>
+      <c r="B246" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>45090</v>
+      </c>
+      <c r="B247" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>45091</v>
+      </c>
+      <c r="B248" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>45091</v>
+      </c>
+      <c r="B249" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>45091</v>
+      </c>
+      <c r="B250" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B251" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" s="5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B252" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B253" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>45092</v>
+      </c>
+      <c r="B254" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>45093</v>
+      </c>
+      <c r="B255" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>45093</v>
+      </c>
+      <c r="B256" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>45094</v>
+      </c>
+      <c r="B257" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>45094</v>
+      </c>
+      <c r="B258" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B259" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B260" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B261" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B262" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>45097</v>
+      </c>
+      <c r="B263" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>45097</v>
+      </c>
+      <c r="B264" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>45098</v>
+      </c>
+      <c r="B265" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>45098</v>
+      </c>
+      <c r="B266" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>45099</v>
+      </c>
+      <c r="B267" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>45099</v>
+      </c>
+      <c r="B268" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>45099</v>
+      </c>
+      <c r="B269" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>45100</v>
+      </c>
+      <c r="B270" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>45100</v>
+      </c>
+      <c r="B271" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>45101</v>
+      </c>
+      <c r="B272" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E272" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>45101</v>
+      </c>
+      <c r="B273" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>45103</v>
+      </c>
+      <c r="B274" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>45103</v>
+      </c>
+      <c r="B275" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>45103</v>
+      </c>
+      <c r="B276" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>45103</v>
+      </c>
+      <c r="B277" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>45104</v>
+      </c>
+      <c r="B278" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>45104</v>
+      </c>
+      <c r="B279" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>45104</v>
+      </c>
+      <c r="B280" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>45105</v>
+      </c>
+      <c r="B281" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>45105</v>
+      </c>
+      <c r="B282" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>45105</v>
+      </c>
+      <c r="B283" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B284" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" s="5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>45106</v>
+      </c>
+      <c r="B285" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>45107</v>
+      </c>
+      <c r="B286" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" s="5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>45107</v>
+      </c>
+      <c r="B287" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E287" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>45107</v>
+      </c>
+      <c r="B288" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E288" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B289" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>45110</v>
+      </c>
+      <c r="B290" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>45110</v>
+      </c>
+      <c r="B291" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E291" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>45110</v>
+      </c>
+      <c r="B292" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>45110</v>
+      </c>
+      <c r="B293" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E293" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>45111</v>
+      </c>
+      <c r="B294" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>45111</v>
+      </c>
+      <c r="B295" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E295" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B296" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B297" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B298" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>45113</v>
+      </c>
+      <c r="B299" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E299" s="5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>45113</v>
+      </c>
+      <c r="B300" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E300" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>45113</v>
+      </c>
+      <c r="B301" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>45114</v>
+      </c>
+      <c r="B302" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E302" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>45114</v>
+      </c>
+      <c r="B303" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E303" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B304" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B305" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B306" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E306" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B307" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E307" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B308" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E308" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>45118</v>
+      </c>
+      <c r="B309" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E309" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>45118</v>
+      </c>
+      <c r="B310" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E310" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>45119</v>
+      </c>
+      <c r="B311" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E311" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>45119</v>
+      </c>
+      <c r="B312" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>45120</v>
+      </c>
+      <c r="B313" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E313" s="5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>45120</v>
+      </c>
+      <c r="B314" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E314" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>45120</v>
+      </c>
+      <c r="B315" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>45121</v>
+      </c>
+      <c r="B316" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E316" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>45121</v>
+      </c>
+      <c r="B317" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E317" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>45121</v>
+      </c>
+      <c r="B318" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E318" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>45122</v>
+      </c>
+      <c r="B319" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B320" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E320" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B321" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B322" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E322" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B323" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E323" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>45125</v>
+      </c>
+      <c r="B324" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E324" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>45125</v>
+      </c>
+      <c r="B325" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E325" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>45125</v>
+      </c>
+      <c r="B326" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E326" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>45126</v>
+      </c>
+      <c r="B327" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E327" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>45126</v>
+      </c>
+      <c r="B328" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>45126</v>
+      </c>
+      <c r="B329" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E329" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>45127</v>
+      </c>
+      <c r="B330" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>45127</v>
+      </c>
+      <c r="B331" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E331" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>45128</v>
+      </c>
+      <c r="B332" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>45128</v>
+      </c>
+      <c r="B333" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>45129</v>
+      </c>
+      <c r="B334" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E334" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>45129</v>
+      </c>
+      <c r="B335" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E335" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>45130</v>
+      </c>
+      <c r="B336" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E336" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>45131</v>
+      </c>
+      <c r="B337" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>45131</v>
+      </c>
+      <c r="B338" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>45131</v>
+      </c>
+      <c r="B339" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E339" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>45132</v>
+      </c>
+      <c r="B340" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E340" s="5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>45132</v>
+      </c>
+      <c r="B341" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E341" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>45133</v>
+      </c>
+      <c r="B342" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E342" s="5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>45133</v>
+      </c>
+      <c r="B343" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>45133</v>
+      </c>
+      <c r="B344" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>45134</v>
+      </c>
+      <c r="B345" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E345" s="5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>45134</v>
+      </c>
+      <c r="B346" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>45134</v>
+      </c>
+      <c r="B347" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>45134</v>
+      </c>
+      <c r="B348" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E348" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>45135</v>
+      </c>
+      <c r="B349" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E349" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>45135</v>
+      </c>
+      <c r="B350" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E350" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>45135</v>
+      </c>
+      <c r="B351" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E351" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>45138</v>
+      </c>
+      <c r="B352" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E352" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>45138</v>
+      </c>
+      <c r="B353" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>45138</v>
+      </c>
+      <c r="B354" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E354" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B355" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B356" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B357" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E357" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>45140</v>
+      </c>
+      <c r="B358" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>45140</v>
+      </c>
+      <c r="B359" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>45141</v>
+      </c>
+      <c r="B360" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E360" s="5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>45141</v>
+      </c>
+      <c r="B361" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E361" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>45141</v>
+      </c>
+      <c r="B362" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E362" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>45142</v>
+      </c>
+      <c r="B363" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E363" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>45142</v>
+      </c>
+      <c r="B364" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E364" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>45142</v>
+      </c>
+      <c r="B365" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E365" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>45142</v>
+      </c>
+      <c r="B366" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E366" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>45145</v>
+      </c>
+      <c r="B367" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E367" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>45145</v>
+      </c>
+      <c r="B368" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E368" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>45145</v>
+      </c>
+      <c r="B369" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E369" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>45145</v>
+      </c>
+      <c r="B370" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E370" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>45146</v>
+      </c>
+      <c r="B371" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E371" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>45146</v>
+      </c>
+      <c r="B372" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>45147</v>
+      </c>
+      <c r="B373" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E373" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>45147</v>
+      </c>
+      <c r="B374" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E374" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>45147</v>
+      </c>
+      <c r="B375" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>45148</v>
+      </c>
+      <c r="B376" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E376" s="5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>45148</v>
+      </c>
+      <c r="B377" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E377" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>45149</v>
+      </c>
+      <c r="B378" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E378" s="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>45149</v>
+      </c>
+      <c r="B379" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E379" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>45149</v>
+      </c>
+      <c r="B380" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E380" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>45149</v>
+      </c>
+      <c r="B381" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E381" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>45150</v>
+      </c>
+      <c r="B382" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" s="5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>45150</v>
+      </c>
+      <c r="B383" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E383" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>45151</v>
+      </c>
+      <c r="B384" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E384" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>45152</v>
+      </c>
+      <c r="B385" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E385" s="5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>45152</v>
+      </c>
+      <c r="B386" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E386" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>45154</v>
+      </c>
+      <c r="B387" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E387" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>45154</v>
+      </c>
+      <c r="B388" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E388" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>45154</v>
+      </c>
+      <c r="B389" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E389" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>45154</v>
+      </c>
+      <c r="B390" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E390" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>45155</v>
+      </c>
+      <c r="B391" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E391" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>45155</v>
+      </c>
+      <c r="B392" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>45155</v>
+      </c>
+      <c r="B393" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E393" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>45156</v>
+      </c>
+      <c r="B394" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" s="5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>45156</v>
+      </c>
+      <c r="B395" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>45156</v>
+      </c>
+      <c r="B396" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>45156</v>
+      </c>
+      <c r="B397" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E397" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>45157</v>
+      </c>
+      <c r="B398" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E398" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>45159</v>
+      </c>
+      <c r="B399" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E399" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>45159</v>
+      </c>
+      <c r="B400" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E400" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>45159</v>
+      </c>
+      <c r="B401" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E401" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>45159</v>
+      </c>
+      <c r="B402" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E402" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>45160</v>
+      </c>
+      <c r="B403" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E403" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>45160</v>
+      </c>
+      <c r="B404" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E404" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>45160</v>
+      </c>
+      <c r="B405" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E405" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>45161</v>
+      </c>
+      <c r="B406" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E406" s="5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>45161</v>
+      </c>
+      <c r="B407" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E407" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>45161</v>
+      </c>
+      <c r="B408" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E408" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>45161</v>
+      </c>
+      <c r="B409" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E409" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>45162</v>
+      </c>
+      <c r="B410" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E410" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>45162</v>
+      </c>
+      <c r="B411" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E411" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>45163</v>
+      </c>
+      <c r="B412" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E412" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>45163</v>
+      </c>
+      <c r="B413" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E413" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>45163</v>
+      </c>
+      <c r="B414" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E414" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>45163</v>
+      </c>
+      <c r="B415" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E415" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>45166</v>
+      </c>
+      <c r="B416" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E416" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>45166</v>
+      </c>
+      <c r="B417" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E417" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>45166</v>
+      </c>
+      <c r="B418" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>45167</v>
+      </c>
+      <c r="B419" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E419" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>45167</v>
+      </c>
+      <c r="B420" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E420" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>45167</v>
+      </c>
+      <c r="B421" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E421" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>45168</v>
+      </c>
+      <c r="B422" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E422" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>45168</v>
+      </c>
+      <c r="B423" s="4">
+        <v>4357</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E423" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>45168</v>
+      </c>
+      <c r="B424" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E424" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>45168</v>
+      </c>
+      <c r="B425" s="4">
+        <v>4365</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>45169</v>
+      </c>
+      <c r="B426" s="4">
+        <v>4356</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E426" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>45169</v>
+      </c>
+      <c r="B427" s="4">
+        <v>4367</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E427" s="5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATOS_VENTA_23.xlsx
+++ b/DATOS_VENTA_23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\ESPECIALIZACION DATA ANALYTICS\dataops\trabajo_final_dataops2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tarea\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE79A0B5-EEEA-41E0-8D3D-78FB8583F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A945BC42-548E-4C7F-AB6E-8AE2D1288198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{298EFFE4-52CD-4160-8C02-56F0080C6DFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{298EFFE4-52CD-4160-8C02-56F0080C6DFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="10">
   <si>
     <t>Fecha</t>
   </si>
@@ -105,7 +105,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +116,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,13 +152,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,10 +208,10 @@
       <sheetName val="RptListadoBeneficio"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1">
         <row r="2">
           <cell r="B2">
             <v>4356</v>
@@ -229,7 +253,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -532,15 +556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65C7570-2AC3-4E43-BDA3-CFBB69971771}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +584,23 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44928</v>
       </c>
@@ -574,8 +617,24 @@
       <c r="E2" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <v>44928</v>
+      </c>
+      <c r="I2" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J2" s="9" t="str">
+        <f>+VLOOKUP(I2,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44928</v>
       </c>
@@ -592,8 +651,24 @@
       <c r="E3" s="5">
         <v>480</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <v>44929</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f>+VLOOKUP(I3,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44928</v>
       </c>
@@ -610,8 +685,24 @@
       <c r="E4" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <v>44935</v>
+      </c>
+      <c r="I4" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J4" s="9" t="str">
+        <f>+VLOOKUP(I4,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44928</v>
       </c>
@@ -628,8 +719,24 @@
       <c r="E5" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <v>44942</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J5" s="9" t="str">
+        <f>+VLOOKUP(I5,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44928</v>
       </c>
@@ -646,8 +753,24 @@
       <c r="E6" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>44953</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f>+VLOOKUP(I6,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44928</v>
       </c>
@@ -664,8 +787,24 @@
       <c r="E7" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <v>44956</v>
+      </c>
+      <c r="I7" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f>+VLOOKUP(I7,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44929</v>
       </c>
@@ -682,8 +821,24 @@
       <c r="E8" s="5">
         <v>236</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="8">
+        <v>44957</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f>+VLOOKUP(I8,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44929</v>
       </c>
@@ -700,8 +855,24 @@
       <c r="E9" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="8">
+        <v>44958</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f>+VLOOKUP(I9,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="10">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44929</v>
       </c>
@@ -718,8 +889,24 @@
       <c r="E10" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="8">
+        <v>44963</v>
+      </c>
+      <c r="I10" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f>+VLOOKUP(I10,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="10">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44929</v>
       </c>
@@ -736,8 +923,24 @@
       <c r="E11" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="8">
+        <v>44964</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f>+VLOOKUP(I11,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44929</v>
       </c>
@@ -754,8 +957,24 @@
       <c r="E12" s="5">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="8">
+        <v>44966</v>
+      </c>
+      <c r="I12" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f>+VLOOKUP(I12,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44930</v>
       </c>
@@ -772,8 +991,24 @@
       <c r="E13" s="5">
         <v>437</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="8">
+        <v>44967</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f>+VLOOKUP(I13,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44930</v>
       </c>
@@ -790,8 +1025,24 @@
       <c r="E14" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="8">
+        <v>44970</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f>+VLOOKUP(I14,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44931</v>
       </c>
@@ -807,6 +1058,5152 @@
       </c>
       <c r="E15" s="5">
         <v>196</v>
+      </c>
+      <c r="H15" s="8">
+        <v>44971</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f>+VLOOKUP(I15,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="8">
+        <v>44972</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J16" s="9" t="str">
+        <f>+VLOOKUP(I16,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="8">
+        <v>44973</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f>+VLOOKUP(I17,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="8">
+        <v>44974</v>
+      </c>
+      <c r="I18" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f>+VLOOKUP(I18,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="10">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="8">
+        <v>44978</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f>+VLOOKUP(I19,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="8">
+        <v>44979</v>
+      </c>
+      <c r="I20" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J20" s="9" t="str">
+        <f>+VLOOKUP(I20,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="8">
+        <v>44980</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J21" s="9" t="str">
+        <f>+VLOOKUP(I21,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="8">
+        <v>44981</v>
+      </c>
+      <c r="I22" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J22" s="9" t="str">
+        <f>+VLOOKUP(I22,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="8">
+        <v>44984</v>
+      </c>
+      <c r="I23" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J23" s="9" t="str">
+        <f>+VLOOKUP(I23,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="8">
+        <v>44985</v>
+      </c>
+      <c r="I24" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f>+VLOOKUP(I24,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="8">
+        <v>44986</v>
+      </c>
+      <c r="I25" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J25" s="9" t="str">
+        <f>+VLOOKUP(I25,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="8">
+        <v>44987</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <f>+VLOOKUP(I26,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="8">
+        <v>44988</v>
+      </c>
+      <c r="I27" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f>+VLOOKUP(I27,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="8">
+        <v>44991</v>
+      </c>
+      <c r="I28" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f>+VLOOKUP(I28,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="8">
+        <v>44992</v>
+      </c>
+      <c r="I29" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f>+VLOOKUP(I29,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="10">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="8">
+        <v>44993</v>
+      </c>
+      <c r="I30" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f>+VLOOKUP(I30,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="8">
+        <v>44994</v>
+      </c>
+      <c r="I31" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f>+VLOOKUP(I31,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="8">
+        <v>44995</v>
+      </c>
+      <c r="I32" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f>+VLOOKUP(I32,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="8">
+        <v>44996</v>
+      </c>
+      <c r="I33" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f>+VLOOKUP(I33,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="10">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="8">
+        <v>44998</v>
+      </c>
+      <c r="I34" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f>+VLOOKUP(I34,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="10">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="8">
+        <v>45000</v>
+      </c>
+      <c r="I35" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f>+VLOOKUP(I35,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="8">
+        <v>45001</v>
+      </c>
+      <c r="I36" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J36" s="9" t="str">
+        <f>+VLOOKUP(I36,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="8">
+        <v>45002</v>
+      </c>
+      <c r="I37" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J37" s="9" t="str">
+        <f>+VLOOKUP(I37,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="8">
+        <v>45003</v>
+      </c>
+      <c r="I38" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J38" s="9" t="str">
+        <f>+VLOOKUP(I38,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="8">
+        <v>45007</v>
+      </c>
+      <c r="I39" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J39" s="9" t="str">
+        <f>+VLOOKUP(I39,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="8">
+        <v>45008</v>
+      </c>
+      <c r="I40" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f>+VLOOKUP(I40,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="10">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H41" s="8">
+        <v>45009</v>
+      </c>
+      <c r="I41" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f>+VLOOKUP(I41,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="8">
+        <v>45010</v>
+      </c>
+      <c r="I42" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J42" s="9" t="str">
+        <f>+VLOOKUP(I42,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="8">
+        <v>45012</v>
+      </c>
+      <c r="I43" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J43" s="9" t="str">
+        <f>+VLOOKUP(I43,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H44" s="8">
+        <v>45013</v>
+      </c>
+      <c r="I44" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f>+VLOOKUP(I44,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="8">
+        <v>45014</v>
+      </c>
+      <c r="I45" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J45" s="9" t="str">
+        <f>+VLOOKUP(I45,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H46" s="8">
+        <v>45015</v>
+      </c>
+      <c r="I46" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J46" s="9" t="str">
+        <f>+VLOOKUP(I46,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="8">
+        <v>45016</v>
+      </c>
+      <c r="I47" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J47" s="9" t="str">
+        <f>+VLOOKUP(I47,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="8">
+        <v>45018</v>
+      </c>
+      <c r="I48" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J48" s="9" t="str">
+        <f>+VLOOKUP(I48,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H49" s="8">
+        <v>45019</v>
+      </c>
+      <c r="I49" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J49" s="9" t="str">
+        <f>+VLOOKUP(I49,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="8">
+        <v>45021</v>
+      </c>
+      <c r="I50" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f>+VLOOKUP(I50,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="8">
+        <v>45022</v>
+      </c>
+      <c r="I51" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J51" s="9" t="str">
+        <f>+VLOOKUP(I51,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="8">
+        <v>45023</v>
+      </c>
+      <c r="I52" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J52" s="9" t="str">
+        <f>+VLOOKUP(I52,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="8">
+        <v>45027</v>
+      </c>
+      <c r="I53" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f>+VLOOKUP(I53,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="8">
+        <v>45028</v>
+      </c>
+      <c r="I54" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <f>+VLOOKUP(I54,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="8">
+        <v>45028</v>
+      </c>
+      <c r="I55" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f>+VLOOKUP(I55,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="8">
+        <v>45029</v>
+      </c>
+      <c r="I56" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J56" s="9" t="str">
+        <f>+VLOOKUP(I56,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="8">
+        <v>45030</v>
+      </c>
+      <c r="I57" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J57" s="9" t="str">
+        <f>+VLOOKUP(I57,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H58" s="8">
+        <v>45031</v>
+      </c>
+      <c r="I58" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J58" s="9" t="str">
+        <f>+VLOOKUP(I58,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H59" s="8">
+        <v>45031</v>
+      </c>
+      <c r="I59" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J59" s="9" t="str">
+        <f>+VLOOKUP(I59,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="8">
+        <v>45033</v>
+      </c>
+      <c r="I60" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J60" s="9" t="str">
+        <f>+VLOOKUP(I60,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="10">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="8">
+        <v>45033</v>
+      </c>
+      <c r="I61" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J61" s="9" t="str">
+        <f>+VLOOKUP(I61,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="8">
+        <v>45034</v>
+      </c>
+      <c r="I62" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J62" s="9" t="str">
+        <f>+VLOOKUP(I62,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H63" s="8">
+        <v>45035</v>
+      </c>
+      <c r="I63" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J63" s="9" t="str">
+        <f>+VLOOKUP(I63,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="8">
+        <v>45035</v>
+      </c>
+      <c r="I64" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J64" s="9" t="str">
+        <f>+VLOOKUP(I64,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H65" s="8">
+        <v>45036</v>
+      </c>
+      <c r="I65" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J65" s="9" t="str">
+        <f>+VLOOKUP(I65,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H66" s="8">
+        <v>45037</v>
+      </c>
+      <c r="I66" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J66" s="9" t="str">
+        <f>+VLOOKUP(I66,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H67" s="8">
+        <v>45037</v>
+      </c>
+      <c r="I67" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J67" s="9" t="str">
+        <f>+VLOOKUP(I67,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H68" s="8">
+        <v>45038</v>
+      </c>
+      <c r="I68" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J68" s="9" t="str">
+        <f>+VLOOKUP(I68,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H69" s="8">
+        <v>45038</v>
+      </c>
+      <c r="I69" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J69" s="9" t="str">
+        <f>+VLOOKUP(I69,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H70" s="8">
+        <v>45040</v>
+      </c>
+      <c r="I70" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J70" s="9" t="str">
+        <f>+VLOOKUP(I70,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H71" s="8">
+        <v>45040</v>
+      </c>
+      <c r="I71" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J71" s="9" t="str">
+        <f>+VLOOKUP(I71,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H72" s="8">
+        <v>45041</v>
+      </c>
+      <c r="I72" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J72" s="9" t="str">
+        <f>+VLOOKUP(I72,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="10">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H73" s="8">
+        <v>45041</v>
+      </c>
+      <c r="I73" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J73" s="9" t="str">
+        <f>+VLOOKUP(I73,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H74" s="8">
+        <v>45042</v>
+      </c>
+      <c r="I74" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J74" s="9" t="str">
+        <f>+VLOOKUP(I74,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H75" s="8">
+        <v>45042</v>
+      </c>
+      <c r="I75" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J75" s="9" t="str">
+        <f>+VLOOKUP(I75,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H76" s="8">
+        <v>45042</v>
+      </c>
+      <c r="I76" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J76" s="9" t="str">
+        <f>+VLOOKUP(I76,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" s="10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H77" s="8">
+        <v>45043</v>
+      </c>
+      <c r="I77" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J77" s="9" t="str">
+        <f>+VLOOKUP(I77,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L77" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H78" s="8">
+        <v>45043</v>
+      </c>
+      <c r="I78" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J78" s="9" t="str">
+        <f>+VLOOKUP(I78,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L78" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H79" s="8">
+        <v>45044</v>
+      </c>
+      <c r="I79" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J79" s="9" t="str">
+        <f>+VLOOKUP(I79,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L79" s="10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H80" s="8">
+        <v>45044</v>
+      </c>
+      <c r="I80" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J80" s="9" t="str">
+        <f>+VLOOKUP(I80,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H81" s="8">
+        <v>45044</v>
+      </c>
+      <c r="I81" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J81" s="9" t="str">
+        <f>+VLOOKUP(I81,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H82" s="8">
+        <v>45045</v>
+      </c>
+      <c r="I82" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J82" s="9" t="str">
+        <f>+VLOOKUP(I82,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H83" s="8">
+        <v>45048</v>
+      </c>
+      <c r="I83" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J83" s="9" t="str">
+        <f>+VLOOKUP(I83,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H84" s="8">
+        <v>45048</v>
+      </c>
+      <c r="I84" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J84" s="9" t="str">
+        <f>+VLOOKUP(I84,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H85" s="8">
+        <v>45048</v>
+      </c>
+      <c r="I85" s="11">
+        <v>4360</v>
+      </c>
+      <c r="J85" s="9" t="str">
+        <f>+VLOOKUP(I85,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO C</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H86" s="8">
+        <v>45049</v>
+      </c>
+      <c r="I86" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J86" s="9" t="str">
+        <f>+VLOOKUP(I86,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H87" s="8">
+        <v>45049</v>
+      </c>
+      <c r="I87" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J87" s="9" t="str">
+        <f>+VLOOKUP(I87,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L87" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H88" s="8">
+        <v>45049</v>
+      </c>
+      <c r="I88" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J88" s="9" t="str">
+        <f>+VLOOKUP(I88,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H89" s="8">
+        <v>45050</v>
+      </c>
+      <c r="I89" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J89" s="9" t="str">
+        <f>+VLOOKUP(I89,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H90" s="8">
+        <v>45050</v>
+      </c>
+      <c r="I90" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J90" s="9" t="str">
+        <f>+VLOOKUP(I90,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H91" s="8">
+        <v>45051</v>
+      </c>
+      <c r="I91" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J91" s="9" t="str">
+        <f>+VLOOKUP(I91,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L91" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H92" s="8">
+        <v>45052</v>
+      </c>
+      <c r="I92" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J92" s="9" t="str">
+        <f>+VLOOKUP(I92,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L92" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H93" s="8">
+        <v>45052</v>
+      </c>
+      <c r="I93" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J93" s="9" t="str">
+        <f>+VLOOKUP(I93,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L93" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H94" s="8">
+        <v>45053</v>
+      </c>
+      <c r="I94" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J94" s="9" t="str">
+        <f>+VLOOKUP(I94,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L94" s="10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H95" s="8">
+        <v>45053</v>
+      </c>
+      <c r="I95" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J95" s="9" t="str">
+        <f>+VLOOKUP(I95,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L95" s="10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H96" s="8">
+        <v>45054</v>
+      </c>
+      <c r="I96" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J96" s="9" t="str">
+        <f>+VLOOKUP(I96,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L96" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H97" s="8">
+        <v>45054</v>
+      </c>
+      <c r="I97" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J97" s="9" t="str">
+        <f>+VLOOKUP(I97,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H98" s="8">
+        <v>45054</v>
+      </c>
+      <c r="I98" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J98" s="9" t="str">
+        <f>+VLOOKUP(I98,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H99" s="8">
+        <v>45055</v>
+      </c>
+      <c r="I99" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J99" s="9" t="str">
+        <f>+VLOOKUP(I99,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L99" s="10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H100" s="8">
+        <v>45055</v>
+      </c>
+      <c r="I100" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J100" s="9" t="str">
+        <f>+VLOOKUP(I100,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H101" s="8">
+        <v>45056</v>
+      </c>
+      <c r="I101" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J101" s="9" t="str">
+        <f>+VLOOKUP(I101,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L101" s="10">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H102" s="8">
+        <v>45056</v>
+      </c>
+      <c r="I102" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J102" s="9" t="str">
+        <f>+VLOOKUP(I102,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L102" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H103" s="8">
+        <v>45057</v>
+      </c>
+      <c r="I103" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J103" s="9" t="str">
+        <f>+VLOOKUP(I103,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L103" s="10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H104" s="8">
+        <v>45057</v>
+      </c>
+      <c r="I104" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J104" s="9" t="str">
+        <f>+VLOOKUP(I104,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L104" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H105" s="8">
+        <v>45058</v>
+      </c>
+      <c r="I105" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J105" s="9" t="str">
+        <f>+VLOOKUP(I105,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H106" s="8">
+        <v>45059</v>
+      </c>
+      <c r="I106" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J106" s="9" t="str">
+        <f>+VLOOKUP(I106,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H107" s="8">
+        <v>45059</v>
+      </c>
+      <c r="I107" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J107" s="9" t="str">
+        <f>+VLOOKUP(I107,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L107" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H108" s="8">
+        <v>45061</v>
+      </c>
+      <c r="I108" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J108" s="9" t="str">
+        <f>+VLOOKUP(I108,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" s="10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H109" s="8">
+        <v>45061</v>
+      </c>
+      <c r="I109" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J109" s="9" t="str">
+        <f>+VLOOKUP(I109,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L109" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H110" s="8">
+        <v>45062</v>
+      </c>
+      <c r="I110" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J110" s="9" t="str">
+        <f>+VLOOKUP(I110,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L110" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H111" s="8">
+        <v>45062</v>
+      </c>
+      <c r="I111" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J111" s="9" t="str">
+        <f>+VLOOKUP(I111,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H112" s="8">
+        <v>45063</v>
+      </c>
+      <c r="I112" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J112" s="9" t="str">
+        <f>+VLOOKUP(I112,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L112" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H113" s="8">
+        <v>45064</v>
+      </c>
+      <c r="I113" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J113" s="9" t="str">
+        <f>+VLOOKUP(I113,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L113" s="10">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H114" s="8">
+        <v>45064</v>
+      </c>
+      <c r="I114" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J114" s="9" t="str">
+        <f>+VLOOKUP(I114,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L114" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H115" s="8">
+        <v>45065</v>
+      </c>
+      <c r="I115" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J115" s="9" t="str">
+        <f>+VLOOKUP(I115,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L115" s="10">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H116" s="8">
+        <v>45065</v>
+      </c>
+      <c r="I116" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J116" s="9" t="str">
+        <f>+VLOOKUP(I116,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L116" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H117" s="8">
+        <v>45066</v>
+      </c>
+      <c r="I117" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J117" s="9" t="str">
+        <f>+VLOOKUP(I117,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L117" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H118" s="8">
+        <v>45066</v>
+      </c>
+      <c r="I118" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J118" s="9" t="str">
+        <f>+VLOOKUP(I118,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L118" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H119" s="8">
+        <v>45068</v>
+      </c>
+      <c r="I119" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J119" s="9" t="str">
+        <f>+VLOOKUP(I119,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L119" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H120" s="8">
+        <v>45068</v>
+      </c>
+      <c r="I120" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J120" s="9" t="str">
+        <f>+VLOOKUP(I120,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H121" s="8">
+        <v>45068</v>
+      </c>
+      <c r="I121" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J121" s="9" t="str">
+        <f>+VLOOKUP(I121,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L121" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H122" s="8">
+        <v>45069</v>
+      </c>
+      <c r="I122" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J122" s="9" t="str">
+        <f>+VLOOKUP(I122,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L122" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H123" s="8">
+        <v>45069</v>
+      </c>
+      <c r="I123" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J123" s="9" t="str">
+        <f>+VLOOKUP(I123,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L123" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H124" s="8">
+        <v>45070</v>
+      </c>
+      <c r="I124" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J124" s="9" t="str">
+        <f>+VLOOKUP(I124,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L124" s="10">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H125" s="8">
+        <v>45070</v>
+      </c>
+      <c r="I125" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J125" s="9" t="str">
+        <f>+VLOOKUP(I125,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H126" s="8">
+        <v>45070</v>
+      </c>
+      <c r="I126" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J126" s="9" t="str">
+        <f>+VLOOKUP(I126,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L126" s="10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H127" s="8">
+        <v>45071</v>
+      </c>
+      <c r="I127" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J127" s="9" t="str">
+        <f>+VLOOKUP(I127,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L127" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H128" s="8">
+        <v>45071</v>
+      </c>
+      <c r="I128" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J128" s="9" t="str">
+        <f>+VLOOKUP(I128,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L128" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H129" s="8">
+        <v>45072</v>
+      </c>
+      <c r="I129" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J129" s="9" t="str">
+        <f>+VLOOKUP(I129,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L129" s="10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H130" s="8">
+        <v>45072</v>
+      </c>
+      <c r="I130" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J130" s="9" t="str">
+        <f>+VLOOKUP(I130,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L130" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H131" s="8">
+        <v>45075</v>
+      </c>
+      <c r="I131" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J131" s="9" t="str">
+        <f>+VLOOKUP(I131,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L131" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H132" s="8">
+        <v>45075</v>
+      </c>
+      <c r="I132" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J132" s="9" t="str">
+        <f>+VLOOKUP(I132,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H133" s="8">
+        <v>45075</v>
+      </c>
+      <c r="I133" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J133" s="9" t="str">
+        <f>+VLOOKUP(I133,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L133" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H134" s="8">
+        <v>45076</v>
+      </c>
+      <c r="I134" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J134" s="9" t="str">
+        <f>+VLOOKUP(I134,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L134" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H135" s="8">
+        <v>45076</v>
+      </c>
+      <c r="I135" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J135" s="9" t="str">
+        <f>+VLOOKUP(I135,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L135" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H136" s="8">
+        <v>45077</v>
+      </c>
+      <c r="I136" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J136" s="9" t="str">
+        <f>+VLOOKUP(I136,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L136" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H137" s="8">
+        <v>45077</v>
+      </c>
+      <c r="I137" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J137" s="9" t="str">
+        <f>+VLOOKUP(I137,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L137" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H138" s="8">
+        <v>45078</v>
+      </c>
+      <c r="I138" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J138" s="9" t="str">
+        <f>+VLOOKUP(I138,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L138" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H139" s="8">
+        <v>45078</v>
+      </c>
+      <c r="I139" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J139" s="9" t="str">
+        <f>+VLOOKUP(I139,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K139" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L139" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H140" s="8">
+        <v>45078</v>
+      </c>
+      <c r="I140" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J140" s="9" t="str">
+        <f>+VLOOKUP(I140,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K140" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L140" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H141" s="8">
+        <v>45079</v>
+      </c>
+      <c r="I141" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J141" s="9" t="str">
+        <f>+VLOOKUP(I141,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L141" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H142" s="8">
+        <v>45079</v>
+      </c>
+      <c r="I142" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J142" s="9" t="str">
+        <f>+VLOOKUP(I142,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L142" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H143" s="8">
+        <v>45080</v>
+      </c>
+      <c r="I143" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J143" s="9" t="str">
+        <f>+VLOOKUP(I143,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L143" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H144" s="8">
+        <v>45082</v>
+      </c>
+      <c r="I144" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J144" s="9" t="str">
+        <f>+VLOOKUP(I144,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L144" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H145" s="8">
+        <v>45082</v>
+      </c>
+      <c r="I145" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J145" s="9" t="str">
+        <f>+VLOOKUP(I145,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L145" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H146" s="8">
+        <v>45083</v>
+      </c>
+      <c r="I146" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J146" s="9" t="str">
+        <f>+VLOOKUP(I146,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L146" s="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H147" s="8">
+        <v>45083</v>
+      </c>
+      <c r="I147" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J147" s="9" t="str">
+        <f>+VLOOKUP(I147,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L147" s="10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H148" s="8">
+        <v>45084</v>
+      </c>
+      <c r="I148" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J148" s="9" t="str">
+        <f>+VLOOKUP(I148,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L148" s="10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H149" s="8">
+        <v>45084</v>
+      </c>
+      <c r="I149" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J149" s="9" t="str">
+        <f>+VLOOKUP(I149,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K149" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H150" s="8">
+        <v>45084</v>
+      </c>
+      <c r="I150" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J150" s="9" t="str">
+        <f>+VLOOKUP(I150,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L150" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H151" s="8">
+        <v>45085</v>
+      </c>
+      <c r="I151" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J151" s="9" t="str">
+        <f>+VLOOKUP(I151,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L151" s="10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H152" s="8">
+        <v>45085</v>
+      </c>
+      <c r="I152" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J152" s="9" t="str">
+        <f>+VLOOKUP(I152,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L152" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H153" s="8">
+        <v>45086</v>
+      </c>
+      <c r="I153" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J153" s="9" t="str">
+        <f>+VLOOKUP(I153,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K153" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L153" s="10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H154" s="8">
+        <v>45086</v>
+      </c>
+      <c r="I154" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J154" s="9" t="str">
+        <f>+VLOOKUP(I154,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H155" s="8">
+        <v>45086</v>
+      </c>
+      <c r="I155" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J155" s="9" t="str">
+        <f>+VLOOKUP(I155,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L155" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H156" s="8">
+        <v>45087</v>
+      </c>
+      <c r="I156" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J156" s="9" t="str">
+        <f>+VLOOKUP(I156,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L156" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H157" s="8">
+        <v>45087</v>
+      </c>
+      <c r="I157" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J157" s="9" t="str">
+        <f>+VLOOKUP(I157,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L157" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H158" s="8">
+        <v>45088</v>
+      </c>
+      <c r="I158" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J158" s="9" t="str">
+        <f>+VLOOKUP(I158,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L158" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H159" s="8">
+        <v>45089</v>
+      </c>
+      <c r="I159" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J159" s="9" t="str">
+        <f>+VLOOKUP(I159,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L159" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H160" s="8">
+        <v>45089</v>
+      </c>
+      <c r="I160" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J160" s="9" t="str">
+        <f>+VLOOKUP(I160,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L160" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="161" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H161" s="8">
+        <v>45090</v>
+      </c>
+      <c r="I161" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J161" s="9" t="str">
+        <f>+VLOOKUP(I161,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K161" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L161" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H162" s="8">
+        <v>45090</v>
+      </c>
+      <c r="I162" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J162" s="9" t="str">
+        <f>+VLOOKUP(I162,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K162" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L162" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H163" s="8">
+        <v>45091</v>
+      </c>
+      <c r="I163" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J163" s="9" t="str">
+        <f>+VLOOKUP(I163,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K163" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L163" s="10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="164" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H164" s="8">
+        <v>45091</v>
+      </c>
+      <c r="I164" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J164" s="9" t="str">
+        <f>+VLOOKUP(I164,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L164" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H165" s="8">
+        <v>45091</v>
+      </c>
+      <c r="I165" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J165" s="9" t="str">
+        <f>+VLOOKUP(I165,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L165" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H166" s="8">
+        <v>45092</v>
+      </c>
+      <c r="I166" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J166" s="9" t="str">
+        <f>+VLOOKUP(I166,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L166" s="10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H167" s="8">
+        <v>45092</v>
+      </c>
+      <c r="I167" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J167" s="9" t="str">
+        <f>+VLOOKUP(I167,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L167" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H168" s="8">
+        <v>45093</v>
+      </c>
+      <c r="I168" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J168" s="9" t="str">
+        <f>+VLOOKUP(I168,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L168" s="10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H169" s="8">
+        <v>45093</v>
+      </c>
+      <c r="I169" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J169" s="9" t="str">
+        <f>+VLOOKUP(I169,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L169" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H170" s="8">
+        <v>45093</v>
+      </c>
+      <c r="I170" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J170" s="9" t="str">
+        <f>+VLOOKUP(I170,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K170" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L170" s="10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H171" s="8">
+        <v>45094</v>
+      </c>
+      <c r="I171" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J171" s="9" t="str">
+        <f>+VLOOKUP(I171,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L171" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H172" s="8">
+        <v>45096</v>
+      </c>
+      <c r="I172" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J172" s="9" t="str">
+        <f>+VLOOKUP(I172,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K172" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L172" s="10">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H173" s="8">
+        <v>45096</v>
+      </c>
+      <c r="I173" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J173" s="9" t="str">
+        <f>+VLOOKUP(I173,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K173" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L173" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H174" s="8">
+        <v>45096</v>
+      </c>
+      <c r="I174" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J174" s="9" t="str">
+        <f>+VLOOKUP(I174,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K174" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L174" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H175" s="8">
+        <v>45097</v>
+      </c>
+      <c r="I175" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J175" s="9" t="str">
+        <f>+VLOOKUP(I175,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K175" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L175" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H176" s="8">
+        <v>45097</v>
+      </c>
+      <c r="I176" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J176" s="9" t="str">
+        <f>+VLOOKUP(I176,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K176" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L176" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H177" s="8">
+        <v>45098</v>
+      </c>
+      <c r="I177" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J177" s="9" t="str">
+        <f>+VLOOKUP(I177,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K177" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L177" s="10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H178" s="8">
+        <v>45098</v>
+      </c>
+      <c r="I178" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J178" s="9" t="str">
+        <f>+VLOOKUP(I178,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K178" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L178" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H179" s="8">
+        <v>45099</v>
+      </c>
+      <c r="I179" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J179" s="9" t="str">
+        <f>+VLOOKUP(I179,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K179" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L179" s="10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H180" s="8">
+        <v>45099</v>
+      </c>
+      <c r="I180" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J180" s="9" t="str">
+        <f>+VLOOKUP(I180,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K180" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L180" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H181" s="8">
+        <v>45100</v>
+      </c>
+      <c r="I181" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J181" s="9" t="str">
+        <f>+VLOOKUP(I181,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K181" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L181" s="10">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H182" s="8">
+        <v>45100</v>
+      </c>
+      <c r="I182" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J182" s="9" t="str">
+        <f>+VLOOKUP(I182,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K182" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H183" s="8">
+        <v>45101</v>
+      </c>
+      <c r="I183" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J183" s="9" t="str">
+        <f>+VLOOKUP(I183,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L183" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H184" s="8">
+        <v>45103</v>
+      </c>
+      <c r="I184" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J184" s="9" t="str">
+        <f>+VLOOKUP(I184,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K184" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L184" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H185" s="8">
+        <v>45103</v>
+      </c>
+      <c r="I185" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J185" s="9" t="str">
+        <f>+VLOOKUP(I185,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K185" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H186" s="8">
+        <v>45104</v>
+      </c>
+      <c r="I186" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J186" s="9" t="str">
+        <f>+VLOOKUP(I186,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K186" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L186" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="187" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H187" s="8">
+        <v>45104</v>
+      </c>
+      <c r="I187" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J187" s="9" t="str">
+        <f>+VLOOKUP(I187,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K187" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L187" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H188" s="8">
+        <v>45105</v>
+      </c>
+      <c r="I188" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J188" s="9" t="str">
+        <f>+VLOOKUP(I188,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K188" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L188" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="189" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H189" s="8">
+        <v>45105</v>
+      </c>
+      <c r="I189" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J189" s="9" t="str">
+        <f>+VLOOKUP(I189,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K189" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L189" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H190" s="8">
+        <v>45105</v>
+      </c>
+      <c r="I190" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J190" s="9" t="str">
+        <f>+VLOOKUP(I190,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K190" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L190" s="10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H191" s="8">
+        <v>45106</v>
+      </c>
+      <c r="I191" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J191" s="9" t="str">
+        <f>+VLOOKUP(I191,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K191" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L191" s="10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H192" s="8">
+        <v>45106</v>
+      </c>
+      <c r="I192" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J192" s="9" t="str">
+        <f>+VLOOKUP(I192,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K192" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L192" s="10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H193" s="8">
+        <v>45107</v>
+      </c>
+      <c r="I193" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J193" s="9" t="str">
+        <f>+VLOOKUP(I193,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K193" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L193" s="10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="194" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H194" s="8">
+        <v>45107</v>
+      </c>
+      <c r="I194" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J194" s="9" t="str">
+        <f>+VLOOKUP(I194,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K194" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L194" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H195" s="8">
+        <v>45110</v>
+      </c>
+      <c r="I195" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J195" s="9" t="str">
+        <f>+VLOOKUP(I195,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K195" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L195" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H196" s="8">
+        <v>45110</v>
+      </c>
+      <c r="I196" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J196" s="9" t="str">
+        <f>+VLOOKUP(I196,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K196" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H197" s="8">
+        <v>45110</v>
+      </c>
+      <c r="I197" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J197" s="9" t="str">
+        <f>+VLOOKUP(I197,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K197" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L197" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H198" s="8">
+        <v>45111</v>
+      </c>
+      <c r="I198" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J198" s="9" t="str">
+        <f>+VLOOKUP(I198,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K198" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L198" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="199" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H199" s="8">
+        <v>45111</v>
+      </c>
+      <c r="I199" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J199" s="9" t="str">
+        <f>+VLOOKUP(I199,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K199" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L199" s="10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H200" s="8">
+        <v>45112</v>
+      </c>
+      <c r="I200" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J200" s="9" t="str">
+        <f>+VLOOKUP(I200,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K200" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L200" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H201" s="8">
+        <v>45112</v>
+      </c>
+      <c r="I201" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J201" s="9" t="str">
+        <f>+VLOOKUP(I201,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K201" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L201" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="202" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H202" s="8">
+        <v>45113</v>
+      </c>
+      <c r="I202" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J202" s="9" t="str">
+        <f>+VLOOKUP(I202,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K202" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L202" s="10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H203" s="8">
+        <v>45113</v>
+      </c>
+      <c r="I203" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J203" s="9" t="str">
+        <f>+VLOOKUP(I203,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K203" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L203" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H204" s="8">
+        <v>45113</v>
+      </c>
+      <c r="I204" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J204" s="9" t="str">
+        <f>+VLOOKUP(I204,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K204" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L204" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="205" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H205" s="8">
+        <v>45114</v>
+      </c>
+      <c r="I205" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J205" s="9" t="str">
+        <f>+VLOOKUP(I205,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K205" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L205" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H206" s="8">
+        <v>45114</v>
+      </c>
+      <c r="I206" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J206" s="9" t="str">
+        <f>+VLOOKUP(I206,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K206" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L206" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H207" s="8">
+        <v>45114</v>
+      </c>
+      <c r="I207" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J207" s="9" t="str">
+        <f>+VLOOKUP(I207,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K207" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L207" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H208" s="8">
+        <v>45115</v>
+      </c>
+      <c r="I208" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J208" s="9" t="str">
+        <f>+VLOOKUP(I208,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K208" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L208" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H209" s="8">
+        <v>45117</v>
+      </c>
+      <c r="I209" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J209" s="9" t="str">
+        <f>+VLOOKUP(I209,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K209" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L209" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="210" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H210" s="8">
+        <v>45117</v>
+      </c>
+      <c r="I210" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J210" s="9" t="str">
+        <f>+VLOOKUP(I210,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K210" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L210" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H211" s="8">
+        <v>45118</v>
+      </c>
+      <c r="I211" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J211" s="9" t="str">
+        <f>+VLOOKUP(I211,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K211" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L211" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="212" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H212" s="8">
+        <v>45118</v>
+      </c>
+      <c r="I212" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J212" s="9" t="str">
+        <f>+VLOOKUP(I212,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K212" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L212" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H213" s="8">
+        <v>45119</v>
+      </c>
+      <c r="I213" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J213" s="9" t="str">
+        <f>+VLOOKUP(I213,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K213" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L213" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H214" s="8">
+        <v>45119</v>
+      </c>
+      <c r="I214" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J214" s="9" t="str">
+        <f>+VLOOKUP(I214,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K214" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L214" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="215" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H215" s="8">
+        <v>45120</v>
+      </c>
+      <c r="I215" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J215" s="9" t="str">
+        <f>+VLOOKUP(I215,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K215" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L215" s="10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H216" s="8">
+        <v>45120</v>
+      </c>
+      <c r="I216" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J216" s="9" t="str">
+        <f>+VLOOKUP(I216,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K216" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L216" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H217" s="8">
+        <v>45120</v>
+      </c>
+      <c r="I217" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J217" s="9" t="str">
+        <f>+VLOOKUP(I217,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K217" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L217" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H218" s="8">
+        <v>45121</v>
+      </c>
+      <c r="I218" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J218" s="9" t="str">
+        <f>+VLOOKUP(I218,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K218" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L218" s="10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="219" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H219" s="8">
+        <v>45121</v>
+      </c>
+      <c r="I219" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J219" s="9" t="str">
+        <f>+VLOOKUP(I219,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K219" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L219" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H220" s="8">
+        <v>45121</v>
+      </c>
+      <c r="I220" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J220" s="9" t="str">
+        <f>+VLOOKUP(I220,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K220" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L220" s="10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H221" s="8">
+        <v>45124</v>
+      </c>
+      <c r="I221" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J221" s="9" t="str">
+        <f>+VLOOKUP(I221,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K221" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L221" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="222" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H222" s="8">
+        <v>45124</v>
+      </c>
+      <c r="I222" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J222" s="9" t="str">
+        <f>+VLOOKUP(I222,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K222" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L222" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H223" s="8">
+        <v>45125</v>
+      </c>
+      <c r="I223" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J223" s="9" t="str">
+        <f>+VLOOKUP(I223,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K223" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L223" s="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="224" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H224" s="8">
+        <v>45125</v>
+      </c>
+      <c r="I224" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J224" s="9" t="str">
+        <f>+VLOOKUP(I224,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K224" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L224" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="225" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H225" s="8">
+        <v>45126</v>
+      </c>
+      <c r="I225" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J225" s="9" t="str">
+        <f>+VLOOKUP(I225,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K225" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L225" s="10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="226" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H226" s="8">
+        <v>45126</v>
+      </c>
+      <c r="I226" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J226" s="9" t="str">
+        <f>+VLOOKUP(I226,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K226" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L226" s="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H227" s="8">
+        <v>45127</v>
+      </c>
+      <c r="I227" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J227" s="9" t="str">
+        <f>+VLOOKUP(I227,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K227" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L227" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H228" s="8">
+        <v>45127</v>
+      </c>
+      <c r="I228" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J228" s="9" t="str">
+        <f>+VLOOKUP(I228,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K228" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L228" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H229" s="8">
+        <v>45128</v>
+      </c>
+      <c r="I229" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J229" s="9" t="str">
+        <f>+VLOOKUP(I229,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K229" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L229" s="10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="230" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H230" s="8">
+        <v>45128</v>
+      </c>
+      <c r="I230" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J230" s="9" t="str">
+        <f>+VLOOKUP(I230,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K230" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L230" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="231" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H231" s="8">
+        <v>45129</v>
+      </c>
+      <c r="I231" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J231" s="9" t="str">
+        <f>+VLOOKUP(I231,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K231" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L231" s="10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H232" s="8">
+        <v>45129</v>
+      </c>
+      <c r="I232" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J232" s="9" t="str">
+        <f>+VLOOKUP(I232,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K232" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L232" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="233" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H233" s="8">
+        <v>45131</v>
+      </c>
+      <c r="I233" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J233" s="9" t="str">
+        <f>+VLOOKUP(I233,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K233" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L233" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H234" s="8">
+        <v>45131</v>
+      </c>
+      <c r="I234" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J234" s="9" t="str">
+        <f>+VLOOKUP(I234,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K234" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L234" s="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="235" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H235" s="8">
+        <v>45131</v>
+      </c>
+      <c r="I235" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J235" s="9" t="str">
+        <f>+VLOOKUP(I235,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K235" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L235" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H236" s="8">
+        <v>45132</v>
+      </c>
+      <c r="I236" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J236" s="9" t="str">
+        <f>+VLOOKUP(I236,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K236" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L236" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H237" s="8">
+        <v>45132</v>
+      </c>
+      <c r="I237" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J237" s="9" t="str">
+        <f>+VLOOKUP(I237,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K237" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L237" s="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H238" s="8">
+        <v>45132</v>
+      </c>
+      <c r="I238" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J238" s="9" t="str">
+        <f>+VLOOKUP(I238,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K238" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L238" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H239" s="8">
+        <v>45133</v>
+      </c>
+      <c r="I239" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J239" s="9" t="str">
+        <f>+VLOOKUP(I239,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K239" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L239" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="240" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H240" s="8">
+        <v>45133</v>
+      </c>
+      <c r="I240" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J240" s="9" t="str">
+        <f>+VLOOKUP(I240,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K240" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L240" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="241" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H241" s="8">
+        <v>45134</v>
+      </c>
+      <c r="I241" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J241" s="9" t="str">
+        <f>+VLOOKUP(I241,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K241" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L241" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="242" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H242" s="8">
+        <v>45134</v>
+      </c>
+      <c r="I242" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J242" s="9" t="str">
+        <f>+VLOOKUP(I242,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K242" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L242" s="10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="243" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H243" s="8">
+        <v>45135</v>
+      </c>
+      <c r="I243" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J243" s="9" t="str">
+        <f>+VLOOKUP(I243,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K243" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L243" s="10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="244" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H244" s="8">
+        <v>45135</v>
+      </c>
+      <c r="I244" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J244" s="9" t="str">
+        <f>+VLOOKUP(I244,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K244" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L244" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="245" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H245" s="8">
+        <v>45138</v>
+      </c>
+      <c r="I245" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J245" s="9" t="str">
+        <f>+VLOOKUP(I245,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K245" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L245" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="246" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H246" s="8">
+        <v>45138</v>
+      </c>
+      <c r="I246" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J246" s="9" t="str">
+        <f>+VLOOKUP(I246,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K246" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L246" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="247" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H247" s="8">
+        <v>45139</v>
+      </c>
+      <c r="I247" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J247" s="9" t="str">
+        <f>+VLOOKUP(I247,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K247" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L247" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="248" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H248" s="8">
+        <v>45139</v>
+      </c>
+      <c r="I248" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J248" s="9" t="str">
+        <f>+VLOOKUP(I248,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K248" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L248" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="249" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H249" s="8">
+        <v>45140</v>
+      </c>
+      <c r="I249" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J249" s="9" t="str">
+        <f>+VLOOKUP(I249,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K249" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L249" s="10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="250" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H250" s="8">
+        <v>45140</v>
+      </c>
+      <c r="I250" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J250" s="9" t="str">
+        <f>+VLOOKUP(I250,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K250" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L250" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="251" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H251" s="8">
+        <v>45141</v>
+      </c>
+      <c r="I251" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J251" s="9" t="str">
+        <f>+VLOOKUP(I251,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K251" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L251" s="10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="252" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H252" s="8">
+        <v>45141</v>
+      </c>
+      <c r="I252" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J252" s="9" t="str">
+        <f>+VLOOKUP(I252,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K252" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L252" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H253" s="8">
+        <v>45142</v>
+      </c>
+      <c r="I253" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J253" s="9" t="str">
+        <f>+VLOOKUP(I253,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K253" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L253" s="10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="254" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H254" s="8">
+        <v>45142</v>
+      </c>
+      <c r="I254" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J254" s="9" t="str">
+        <f>+VLOOKUP(I254,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K254" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L254" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="255" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H255" s="8">
+        <v>45145</v>
+      </c>
+      <c r="I255" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J255" s="9" t="str">
+        <f>+VLOOKUP(I255,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K255" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L255" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="256" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H256" s="8">
+        <v>45145</v>
+      </c>
+      <c r="I256" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J256" s="9" t="str">
+        <f>+VLOOKUP(I256,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K256" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L256" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H257" s="8">
+        <v>45146</v>
+      </c>
+      <c r="I257" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J257" s="9" t="str">
+        <f>+VLOOKUP(I257,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K257" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L257" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="258" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H258" s="8">
+        <v>45146</v>
+      </c>
+      <c r="I258" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J258" s="9" t="str">
+        <f>+VLOOKUP(I258,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K258" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L258" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H259" s="8">
+        <v>45146</v>
+      </c>
+      <c r="I259" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J259" s="9" t="str">
+        <f>+VLOOKUP(I259,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K259" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L259" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H260" s="8">
+        <v>45147</v>
+      </c>
+      <c r="I260" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J260" s="9" t="str">
+        <f>+VLOOKUP(I260,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K260" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L260" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="261" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H261" s="8">
+        <v>45147</v>
+      </c>
+      <c r="I261" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J261" s="9" t="str">
+        <f>+VLOOKUP(I261,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K261" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L261" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H262" s="8">
+        <v>45148</v>
+      </c>
+      <c r="I262" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J262" s="9" t="str">
+        <f>+VLOOKUP(I262,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K262" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L262" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="263" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H263" s="8">
+        <v>45148</v>
+      </c>
+      <c r="I263" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J263" s="9" t="str">
+        <f>+VLOOKUP(I263,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K263" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L263" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="264" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H264" s="8">
+        <v>45149</v>
+      </c>
+      <c r="I264" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J264" s="9" t="str">
+        <f>+VLOOKUP(I264,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K264" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L264" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H265" s="8">
+        <v>45149</v>
+      </c>
+      <c r="I265" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J265" s="9" t="str">
+        <f>+VLOOKUP(I265,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K265" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L265" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H266" s="8">
+        <v>45150</v>
+      </c>
+      <c r="I266" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J266" s="9" t="str">
+        <f>+VLOOKUP(I266,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K266" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L266" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="267" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H267" s="8">
+        <v>45150</v>
+      </c>
+      <c r="I267" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J267" s="9" t="str">
+        <f>+VLOOKUP(I267,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K267" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L267" s="10">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="268" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H268" s="8">
+        <v>45152</v>
+      </c>
+      <c r="I268" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J268" s="9" t="str">
+        <f>+VLOOKUP(I268,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K268" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L268" s="10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="269" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H269" s="8">
+        <v>45154</v>
+      </c>
+      <c r="I269" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J269" s="9" t="str">
+        <f>+VLOOKUP(I269,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K269" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L269" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="270" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H270" s="8">
+        <v>45154</v>
+      </c>
+      <c r="I270" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J270" s="9" t="str">
+        <f>+VLOOKUP(I270,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K270" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L270" s="10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="271" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H271" s="8">
+        <v>45154</v>
+      </c>
+      <c r="I271" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J271" s="9" t="str">
+        <f>+VLOOKUP(I271,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K271" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L271" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H272" s="8">
+        <v>45155</v>
+      </c>
+      <c r="I272" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J272" s="9" t="str">
+        <f>+VLOOKUP(I272,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K272" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L272" s="10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="273" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H273" s="8">
+        <v>45155</v>
+      </c>
+      <c r="I273" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J273" s="9" t="str">
+        <f>+VLOOKUP(I273,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K273" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L273" s="10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="274" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H274" s="8">
+        <v>45156</v>
+      </c>
+      <c r="I274" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J274" s="9" t="str">
+        <f>+VLOOKUP(I274,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K274" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L274" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="275" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H275" s="8">
+        <v>45156</v>
+      </c>
+      <c r="I275" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J275" s="9" t="str">
+        <f>+VLOOKUP(I275,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K275" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L275" s="10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="276" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H276" s="8">
+        <v>45157</v>
+      </c>
+      <c r="I276" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J276" s="9" t="str">
+        <f>+VLOOKUP(I276,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K276" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L276" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H277" s="8">
+        <v>45157</v>
+      </c>
+      <c r="I277" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J277" s="9" t="str">
+        <f>+VLOOKUP(I277,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K277" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L277" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H278" s="8">
+        <v>45159</v>
+      </c>
+      <c r="I278" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J278" s="9" t="str">
+        <f>+VLOOKUP(I278,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K278" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L278" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H279" s="8">
+        <v>45159</v>
+      </c>
+      <c r="I279" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J279" s="9" t="str">
+        <f>+VLOOKUP(I279,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K279" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L279" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="280" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H280" s="8">
+        <v>45159</v>
+      </c>
+      <c r="I280" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J280" s="9" t="str">
+        <f>+VLOOKUP(I280,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K280" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L280" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H281" s="8">
+        <v>45160</v>
+      </c>
+      <c r="I281" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J281" s="9" t="str">
+        <f>+VLOOKUP(I281,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K281" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L281" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="282" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H282" s="8">
+        <v>45160</v>
+      </c>
+      <c r="I282" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J282" s="9" t="str">
+        <f>+VLOOKUP(I282,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K282" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L282" s="10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="283" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H283" s="8">
+        <v>45160</v>
+      </c>
+      <c r="I283" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J283" s="9" t="str">
+        <f>+VLOOKUP(I283,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K283" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L283" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H284" s="8">
+        <v>45161</v>
+      </c>
+      <c r="I284" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J284" s="9" t="str">
+        <f>+VLOOKUP(I284,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K284" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L284" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="285" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H285" s="8">
+        <v>45161</v>
+      </c>
+      <c r="I285" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J285" s="9" t="str">
+        <f>+VLOOKUP(I285,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K285" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L285" s="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="286" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H286" s="8">
+        <v>45162</v>
+      </c>
+      <c r="I286" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J286" s="9" t="str">
+        <f>+VLOOKUP(I286,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K286" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L286" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H287" s="8">
+        <v>45162</v>
+      </c>
+      <c r="I287" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J287" s="9" t="str">
+        <f>+VLOOKUP(I287,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K287" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L287" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H288" s="8">
+        <v>45163</v>
+      </c>
+      <c r="I288" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J288" s="9" t="str">
+        <f>+VLOOKUP(I288,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K288" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L288" s="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="289" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H289" s="8">
+        <v>45163</v>
+      </c>
+      <c r="I289" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J289" s="9" t="str">
+        <f>+VLOOKUP(I289,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K289" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L289" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H290" s="8">
+        <v>45166</v>
+      </c>
+      <c r="I290" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J290" s="9" t="str">
+        <f>+VLOOKUP(I290,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K290" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L290" s="10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="291" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H291" s="8">
+        <v>45166</v>
+      </c>
+      <c r="I291" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J291" s="9" t="str">
+        <f>+VLOOKUP(I291,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K291" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L291" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H292" s="8">
+        <v>45166</v>
+      </c>
+      <c r="I292" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J292" s="9" t="str">
+        <f>+VLOOKUP(I292,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K292" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L292" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="293" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H293" s="8">
+        <v>45166</v>
+      </c>
+      <c r="I293" s="11">
+        <v>4365</v>
+      </c>
+      <c r="J293" s="9" t="str">
+        <f>+VLOOKUP(I293,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v xml:space="preserve">CERDO RANGO E </v>
+      </c>
+      <c r="K293" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L293" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H294" s="8">
+        <v>45167</v>
+      </c>
+      <c r="I294" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J294" s="9" t="str">
+        <f>+VLOOKUP(I294,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K294" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L294" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H295" s="8">
+        <v>45167</v>
+      </c>
+      <c r="I295" s="11">
+        <v>4357</v>
+      </c>
+      <c r="J295" s="9" t="str">
+        <f>+VLOOKUP(I295,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO B</v>
+      </c>
+      <c r="K295" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L295" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H296" s="8">
+        <v>45167</v>
+      </c>
+      <c r="I296" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J296" s="9" t="str">
+        <f>+VLOOKUP(I296,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K296" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L296" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H297" s="8">
+        <v>45168</v>
+      </c>
+      <c r="I297" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J297" s="9" t="str">
+        <f>+VLOOKUP(I297,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K297" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L297" s="10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="298" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H298" s="8">
+        <v>45168</v>
+      </c>
+      <c r="I298" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J298" s="9" t="str">
+        <f>+VLOOKUP(I298,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K298" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L298" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="299" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H299" s="8">
+        <v>45169</v>
+      </c>
+      <c r="I299" s="11">
+        <v>4356</v>
+      </c>
+      <c r="J299" s="9" t="str">
+        <f>+VLOOKUP(I299,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO A</v>
+      </c>
+      <c r="K299" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L299" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="300" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H300" s="8">
+        <v>45169</v>
+      </c>
+      <c r="I300" s="11">
+        <v>4367</v>
+      </c>
+      <c r="J300" s="9" t="str">
+        <f>+VLOOKUP(I300,[1]Hoja3!$B$2:$C$6,2,FALSE)</f>
+        <v>CERDO RANGO D</v>
+      </c>
+      <c r="K300" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L300" s="10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS_VENTA_23.xlsx
+++ b/DATOS_VENTA_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tarea\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94F66C-A10B-41B5-9ACD-48EB66ECC0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DAF5A-49CB-4542-9AED-92D34C1AD866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{298EFFE4-52CD-4160-8C02-56F0080C6DFB}"/>
   </bookViews>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65C7570-2AC3-4E43-BDA3-CFBB69971771}">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C315"/>
+      <selection activeCell="D16" sqref="D16:D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,9 +835,26 @@
         <v>196</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44928</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4356</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>480</v>
+      </c>
+    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B17" s="8">
         <v>4356</v>
@@ -845,16 +862,16 @@
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="6">
-        <v>480</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>44929</v>
+        <v>44935</v>
       </c>
       <c r="B18" s="8">
         <v>4356</v>
@@ -862,7 +879,7 @@
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="6">
@@ -871,7 +888,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="B19" s="8">
         <v>4356</v>
@@ -879,7 +896,7 @@
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="6">
@@ -888,7 +905,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>44942</v>
+        <v>44953</v>
       </c>
       <c r="B20" s="8">
         <v>4356</v>
@@ -896,7 +913,7 @@
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="6">
@@ -905,7 +922,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B21" s="8">
         <v>4356</v>
@@ -913,16 +930,16 @@
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="6">
-        <v>240</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B22" s="8">
         <v>4356</v>
@@ -930,16 +947,16 @@
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="6">
-        <v>406</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B23" s="8">
         <v>4356</v>
@@ -947,16 +964,16 @@
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="6">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>44958</v>
+        <v>44963</v>
       </c>
       <c r="B24" s="8">
         <v>4356</v>
@@ -964,16 +981,16 @@
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="6">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B25" s="8">
         <v>4356</v>
@@ -981,16 +998,16 @@
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="6">
-        <v>313</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="B26" s="8">
         <v>4356</v>
@@ -998,16 +1015,16 @@
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="6">
-        <v>167</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B27" s="8">
         <v>4356</v>
@@ -1015,7 +1032,7 @@
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="6">
@@ -1024,7 +1041,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B28" s="8">
         <v>4356</v>
@@ -1032,16 +1049,16 @@
       <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="6">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B29" s="8">
         <v>4356</v>
@@ -1049,16 +1066,16 @@
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="6">
-        <v>247</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B30" s="8">
         <v>4356</v>
@@ -1066,16 +1083,16 @@
       <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="6">
-        <v>317</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B31" s="8">
         <v>4356</v>
@@ -1083,16 +1100,16 @@
       <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="6">
-        <v>156</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B32" s="8">
         <v>4356</v>
@@ -1100,16 +1117,16 @@
       <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="6">
-        <v>271</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="B33" s="8">
         <v>4356</v>
@@ -1117,16 +1134,16 @@
       <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B34" s="8">
         <v>4356</v>
@@ -1134,7 +1151,7 @@
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="6">
@@ -1143,7 +1160,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B35" s="8">
         <v>4356</v>
@@ -1151,16 +1168,16 @@
       <c r="C35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="6">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B36" s="8">
         <v>4356</v>
@@ -1168,16 +1185,16 @@
       <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="6">
-        <v>220</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B37" s="8">
         <v>4356</v>
@@ -1185,16 +1202,16 @@
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B38" s="8">
         <v>4356</v>
@@ -1202,16 +1219,16 @@
       <c r="C38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="6">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B39" s="8">
         <v>4356</v>
@@ -1219,16 +1236,16 @@
       <c r="C39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="6">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B40" s="8">
         <v>4356</v>
@@ -1236,16 +1253,16 @@
       <c r="C40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="6">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B41" s="8">
         <v>4356</v>
@@ -1253,16 +1270,16 @@
       <c r="C41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="6">
-        <v>173</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B42" s="8">
         <v>4356</v>
@@ -1270,16 +1287,16 @@
       <c r="C42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="6">
-        <v>254</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B43" s="8">
         <v>4356</v>
@@ -1287,16 +1304,16 @@
       <c r="C43" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="6">
-        <v>128</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B44" s="8">
         <v>4356</v>
@@ -1304,16 +1321,16 @@
       <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="6">
-        <v>226</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B45" s="8">
         <v>4356</v>
@@ -1321,16 +1338,16 @@
       <c r="C45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="6">
-        <v>420</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B46" s="8">
         <v>4356</v>
@@ -1338,16 +1355,16 @@
       <c r="C46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="6">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B47" s="8">
         <v>4356</v>
@@ -1355,16 +1372,16 @@
       <c r="C47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="6">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>44996</v>
+        <v>44998</v>
       </c>
       <c r="B48" s="8">
         <v>4356</v>
@@ -1372,16 +1389,16 @@
       <c r="C48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="6">
-        <v>266</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>44998</v>
+        <v>45000</v>
       </c>
       <c r="B49" s="8">
         <v>4356</v>
@@ -1389,16 +1406,16 @@
       <c r="C49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="6">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B50" s="8">
         <v>4356</v>
@@ -1406,7 +1423,7 @@
       <c r="C50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="6">
@@ -1415,7 +1432,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B51" s="8">
         <v>4356</v>
@@ -1423,16 +1440,16 @@
       <c r="C51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="6">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B52" s="8">
         <v>4356</v>
@@ -1440,16 +1457,16 @@
       <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="6">
-        <v>205</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>45003</v>
+        <v>45007</v>
       </c>
       <c r="B53" s="8">
         <v>4356</v>
@@ -1457,16 +1474,16 @@
       <c r="C53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="6">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B54" s="8">
         <v>4356</v>
@@ -1474,16 +1491,16 @@
       <c r="C54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="6">
-        <v>240</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B55" s="8">
         <v>4356</v>
@@ -1491,16 +1508,16 @@
       <c r="C55" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="6">
-        <v>372</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B56" s="8">
         <v>4356</v>
@@ -1508,16 +1525,16 @@
       <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="6">
-        <v>188</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>45010</v>
+        <v>45012</v>
       </c>
       <c r="B57" s="8">
         <v>4356</v>
@@ -1525,16 +1542,16 @@
       <c r="C57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="6">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B58" s="8">
         <v>4356</v>
@@ -1542,16 +1559,16 @@
       <c r="C58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="6">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B59" s="8">
         <v>4356</v>
@@ -1559,16 +1576,16 @@
       <c r="C59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="6">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B60" s="8">
         <v>4356</v>
@@ -1576,16 +1593,16 @@
       <c r="C60" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="6">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B61" s="8">
         <v>4356</v>
@@ -1593,16 +1610,16 @@
       <c r="C61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="6">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>45016</v>
+        <v>45018</v>
       </c>
       <c r="B62" s="8">
         <v>4356</v>
@@ -1610,16 +1627,16 @@
       <c r="C62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="6">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B63" s="8">
         <v>4356</v>
@@ -1627,16 +1644,16 @@
       <c r="C63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="6">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B64" s="8">
         <v>4356</v>
@@ -1644,16 +1661,16 @@
       <c r="C64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="6">
-        <v>133</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B65" s="8">
         <v>4356</v>
@@ -1661,16 +1678,16 @@
       <c r="C65" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="6">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B66" s="8">
         <v>4356</v>
@@ -1678,16 +1695,16 @@
       <c r="C66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="6">
-        <v>26</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="B67" s="8">
         <v>4356</v>
@@ -1695,16 +1712,16 @@
       <c r="C67" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="6">
-        <v>342</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B68" s="8">
         <v>4356</v>
@@ -1712,11 +1729,11 @@
       <c r="C68" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="6">
-        <v>162</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,38 +1741,38 @@
         <v>45028</v>
       </c>
       <c r="B69" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="6">
-        <v>201</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B70" s="8">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="6">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B71" s="8">
         <v>4356</v>
@@ -1763,16 +1780,16 @@
       <c r="C71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="6">
-        <v>188</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B72" s="8">
         <v>4356</v>
@@ -1780,11 +1797,11 @@
       <c r="C72" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="6">
-        <v>69</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,33 +1809,33 @@
         <v>45031</v>
       </c>
       <c r="B73" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="6">
-        <v>200</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>45031</v>
+        <v>45033</v>
       </c>
       <c r="B74" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="6">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,38 +1843,38 @@
         <v>45033</v>
       </c>
       <c r="B75" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="6">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B76" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="6">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B77" s="8">
         <v>4356</v>
@@ -1865,11 +1882,11 @@
       <c r="C77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="6">
-        <v>170</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,38 +1894,38 @@
         <v>45035</v>
       </c>
       <c r="B78" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="6">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B79" s="8">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="6">
-        <v>10</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B80" s="8">
         <v>4356</v>
@@ -1916,11 +1933,11 @@
       <c r="C80" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="6">
-        <v>272</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,33 +1945,33 @@
         <v>45037</v>
       </c>
       <c r="B81" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="6">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B82" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="6">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,33 +1979,33 @@
         <v>45038</v>
       </c>
       <c r="B83" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="6">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
-        <v>45038</v>
+        <v>45040</v>
       </c>
       <c r="B84" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="6">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,33 +2013,33 @@
         <v>45040</v>
       </c>
       <c r="B85" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="6">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B86" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="6">
-        <v>105</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,33 +2047,33 @@
         <v>45041</v>
       </c>
       <c r="B87" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="6">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B88" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="6">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,16 +2081,16 @@
         <v>45042</v>
       </c>
       <c r="B89" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="6">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,33 +2098,33 @@
         <v>45042</v>
       </c>
       <c r="B90" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="6">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B91" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E91" s="6">
-        <v>114</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2115,33 +2132,33 @@
         <v>45043</v>
       </c>
       <c r="B92" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="6">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B93" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E93" s="6">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2149,16 +2166,16 @@
         <v>45044</v>
       </c>
       <c r="B94" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="6">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,38 +2183,38 @@
         <v>45044</v>
       </c>
       <c r="B95" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="6">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B96" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="6">
-        <v>45</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
-        <v>45045</v>
+        <v>45048</v>
       </c>
       <c r="B97" s="8">
         <v>4356</v>
@@ -2205,11 +2222,11 @@
       <c r="C97" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E97" s="6">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,16 +2234,16 @@
         <v>45048</v>
       </c>
       <c r="B98" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="6">
-        <v>245</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,33 +2251,33 @@
         <v>45048</v>
       </c>
       <c r="B99" s="8">
-        <v>4367</v>
+        <v>4360</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B100" s="8">
-        <v>4360</v>
+        <v>4356</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,16 +2285,16 @@
         <v>45049</v>
       </c>
       <c r="B101" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2285,33 +2302,33 @@
         <v>45049</v>
       </c>
       <c r="B102" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="6">
-        <v>10</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B103" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="6">
-        <v>212</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2319,21 +2336,21 @@
         <v>45050</v>
       </c>
       <c r="B104" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E104" s="6">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B105" s="8">
         <v>4367</v>
@@ -2341,28 +2358,28 @@
       <c r="C105" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="6">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B106" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="6">
-        <v>53</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,33 +2387,33 @@
         <v>45052</v>
       </c>
       <c r="B107" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="6">
-        <v>340</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B108" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="6">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,33 +2421,33 @@
         <v>45053</v>
       </c>
       <c r="B109" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E109" s="6">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B110" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="6">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,16 +2455,16 @@
         <v>45054</v>
       </c>
       <c r="B111" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E111" s="6">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,33 +2472,33 @@
         <v>45054</v>
       </c>
       <c r="B112" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B113" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E113" s="6">
-        <v>54</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,33 +2506,33 @@
         <v>45055</v>
       </c>
       <c r="B114" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E114" s="6">
-        <v>254</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B115" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="6">
-        <v>65</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,33 +2540,33 @@
         <v>45056</v>
       </c>
       <c r="B116" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="6">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B117" s="8">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E117" s="6">
-        <v>13</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,38 +2574,38 @@
         <v>45057</v>
       </c>
       <c r="B118" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E118" s="6">
-        <v>366</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B119" s="8">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="6">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B120" s="8">
         <v>4356</v>
@@ -2596,11 +2613,11 @@
       <c r="C120" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E120" s="6">
-        <v>274</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,33 +2625,33 @@
         <v>45059</v>
       </c>
       <c r="B121" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E121" s="6">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B122" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="6">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,33 +2659,33 @@
         <v>45061</v>
       </c>
       <c r="B123" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E123" s="6">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B124" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E124" s="6">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,38 +2693,38 @@
         <v>45062</v>
       </c>
       <c r="B125" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E125" s="6">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B126" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E126" s="6">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B127" s="8">
         <v>4356</v>
@@ -2715,11 +2732,11 @@
       <c r="C127" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="6">
-        <v>180</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,33 +2744,33 @@
         <v>45064</v>
       </c>
       <c r="B128" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E128" s="6">
-        <v>268</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B129" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="6">
-        <v>20</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2761,33 +2778,33 @@
         <v>45065</v>
       </c>
       <c r="B130" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E130" s="6">
-        <v>417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B131" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E131" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,33 +2812,33 @@
         <v>45066</v>
       </c>
       <c r="B132" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E132" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
-        <v>45066</v>
+        <v>45068</v>
       </c>
       <c r="B133" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="6">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2829,16 +2846,16 @@
         <v>45068</v>
       </c>
       <c r="B134" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E134" s="6">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2846,33 +2863,33 @@
         <v>45068</v>
       </c>
       <c r="B135" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E135" s="6">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B136" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E136" s="6">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,33 +2897,33 @@
         <v>45069</v>
       </c>
       <c r="B137" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E137" s="6">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B138" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E138" s="6">
-        <v>53</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,16 +2931,16 @@
         <v>45070</v>
       </c>
       <c r="B139" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="6">
-        <v>214</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,33 +2948,33 @@
         <v>45070</v>
       </c>
       <c r="B140" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="6">
-        <v>10</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B141" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E141" s="6">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,33 +2982,33 @@
         <v>45071</v>
       </c>
       <c r="B142" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E142" s="6">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B143" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="6">
-        <v>95</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,33 +3016,33 @@
         <v>45072</v>
       </c>
       <c r="B144" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E144" s="6">
-        <v>185</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="B145" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E145" s="6">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,16 +3050,16 @@
         <v>45075</v>
       </c>
       <c r="B146" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E146" s="6">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,33 +3067,33 @@
         <v>45075</v>
       </c>
       <c r="B147" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E147" s="6">
-        <v>10</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B148" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E148" s="6">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,33 +3101,33 @@
         <v>45076</v>
       </c>
       <c r="B149" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E149" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B150" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E150" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3118,33 +3135,33 @@
         <v>45077</v>
       </c>
       <c r="B151" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E151" s="6">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B152" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E152" s="6">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,16 +3169,16 @@
         <v>45078</v>
       </c>
       <c r="B153" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E153" s="6">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3169,33 +3186,33 @@
         <v>45078</v>
       </c>
       <c r="B154" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E154" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B155" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E155" s="6">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,21 +3220,21 @@
         <v>45079</v>
       </c>
       <c r="B156" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E156" s="6">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B157" s="8">
         <v>4367</v>
@@ -3225,28 +3242,28 @@
       <c r="C157" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E157" s="6">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="B158" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E158" s="6">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,33 +3271,33 @@
         <v>45082</v>
       </c>
       <c r="B159" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E159" s="6">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B160" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E160" s="6">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3288,33 +3305,33 @@
         <v>45083</v>
       </c>
       <c r="B161" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E161" s="6">
-        <v>220</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B162" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E162" s="6">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,16 +3339,16 @@
         <v>45084</v>
       </c>
       <c r="B163" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E163" s="6">
-        <v>148</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,33 +3356,33 @@
         <v>45084</v>
       </c>
       <c r="B164" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E164" s="6">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B165" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E165" s="6">
-        <v>82</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3373,33 +3390,33 @@
         <v>45085</v>
       </c>
       <c r="B166" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D166" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E166" s="6">
-        <v>195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B167" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E167" s="6">
-        <v>1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3407,16 +3424,16 @@
         <v>45086</v>
       </c>
       <c r="B168" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E168" s="6">
-        <v>126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3424,33 +3441,33 @@
         <v>45086</v>
       </c>
       <c r="B169" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E169" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B170" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E170" s="6">
-        <v>40</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,38 +3475,38 @@
         <v>45087</v>
       </c>
       <c r="B171" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E171" s="6">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B172" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E172" s="6">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B173" s="8">
         <v>4356</v>
@@ -3497,11 +3514,11 @@
       <c r="C173" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E173" s="6">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3509,33 +3526,33 @@
         <v>45089</v>
       </c>
       <c r="B174" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E174" s="6">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B175" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E175" s="6">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,33 +3560,33 @@
         <v>45090</v>
       </c>
       <c r="B176" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E176" s="6">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B177" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E177" s="6">
-        <v>128</v>
+        <v>231</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,16 +3594,16 @@
         <v>45091</v>
       </c>
       <c r="B178" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E178" s="6">
-        <v>231</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,33 +3611,33 @@
         <v>45091</v>
       </c>
       <c r="B179" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E179" s="6">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B180" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E180" s="6">
-        <v>32</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3628,33 +3645,33 @@
         <v>45092</v>
       </c>
       <c r="B181" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E181" s="6">
-        <v>280</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B182" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E182" s="6">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3662,16 +3679,16 @@
         <v>45093</v>
       </c>
       <c r="B183" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E183" s="6">
-        <v>233</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,21 +3696,21 @@
         <v>45093</v>
       </c>
       <c r="B184" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E184" s="6">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B185" s="8">
         <v>4367</v>
@@ -3701,28 +3718,28 @@
       <c r="C185" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E185" s="6">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="B186" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E186" s="6">
-        <v>58</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,16 +3747,16 @@
         <v>45096</v>
       </c>
       <c r="B187" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E187" s="6">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3747,33 +3764,33 @@
         <v>45096</v>
       </c>
       <c r="B188" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E188" s="6">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B189" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E189" s="6">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,33 +3798,33 @@
         <v>45097</v>
       </c>
       <c r="B190" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E190" s="6">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B191" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E191" s="6">
-        <v>99</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3815,33 +3832,33 @@
         <v>45098</v>
       </c>
       <c r="B192" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E192" s="6">
-        <v>305</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B193" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E193" s="6">
-        <v>81</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,33 +3866,33 @@
         <v>45099</v>
       </c>
       <c r="B194" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E194" s="6">
-        <v>204</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B195" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E195" s="6">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3883,38 +3900,38 @@
         <v>45100</v>
       </c>
       <c r="B196" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E196" s="6">
-        <v>191</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B197" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E197" s="6">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="B198" s="8">
         <v>4356</v>
@@ -3922,11 +3939,11 @@
       <c r="C198" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E198" s="6">
-        <v>74</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -3934,33 +3951,33 @@
         <v>45103</v>
       </c>
       <c r="B199" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E199" s="6">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B200" s="8">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E200" s="6">
-        <v>10</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,33 +3985,33 @@
         <v>45104</v>
       </c>
       <c r="B201" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E201" s="6">
-        <v>163</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B202" s="8">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E202" s="6">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4002,16 +4019,16 @@
         <v>45105</v>
       </c>
       <c r="B203" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E203" s="6">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4019,33 +4036,33 @@
         <v>45105</v>
       </c>
       <c r="B204" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E204" s="6">
-        <v>11</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B205" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E205" s="6">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4053,33 +4070,33 @@
         <v>45106</v>
       </c>
       <c r="B206" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D206" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E206" s="6">
-        <v>229</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B207" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E207" s="6">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4087,33 +4104,33 @@
         <v>45107</v>
       </c>
       <c r="B208" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E208" s="6">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B209" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E209" s="6">
-        <v>15</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4121,16 +4138,16 @@
         <v>45110</v>
       </c>
       <c r="B210" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E210" s="6">
-        <v>360</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,33 +4155,33 @@
         <v>45110</v>
       </c>
       <c r="B211" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E211" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B212" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E212" s="6">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4172,33 +4189,33 @@
         <v>45111</v>
       </c>
       <c r="B213" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D213" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E213" s="6">
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B214" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E214" s="6">
-        <v>196</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,33 +4223,33 @@
         <v>45112</v>
       </c>
       <c r="B215" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D215" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E215" s="6">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B216" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E216" s="6">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,16 +4257,16 @@
         <v>45113</v>
       </c>
       <c r="B217" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D217" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E217" s="6">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,33 +4274,33 @@
         <v>45113</v>
       </c>
       <c r="B218" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E218" s="6">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B219" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E219" s="6">
-        <v>210</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4291,16 +4308,16 @@
         <v>45114</v>
       </c>
       <c r="B220" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E220" s="6">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,38 +4325,38 @@
         <v>45114</v>
       </c>
       <c r="B221" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E221" s="6">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B222" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E222" s="6">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
-        <v>45115</v>
+        <v>45117</v>
       </c>
       <c r="B223" s="8">
         <v>4356</v>
@@ -4347,11 +4364,11 @@
       <c r="C223" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E223" s="6">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,33 +4376,33 @@
         <v>45117</v>
       </c>
       <c r="B224" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E224" s="6">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B225" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E225" s="6">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4393,33 +4410,33 @@
         <v>45118</v>
       </c>
       <c r="B226" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E226" s="6">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B227" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E227" s="6">
-        <v>130</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,33 +4444,33 @@
         <v>45119</v>
       </c>
       <c r="B228" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E228" s="6">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B229" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E229" s="6">
-        <v>104</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,16 +4478,16 @@
         <v>45120</v>
       </c>
       <c r="B230" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D230" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E230" s="6">
-        <v>205</v>
+        <v>110</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4478,33 +4495,33 @@
         <v>45120</v>
       </c>
       <c r="B231" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E231" s="6">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B232" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E232" s="6">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4512,16 +4529,16 @@
         <v>45121</v>
       </c>
       <c r="B233" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E233" s="6">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4529,33 +4546,33 @@
         <v>45121</v>
       </c>
       <c r="B234" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E234" s="6">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B235" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E235" s="6">
-        <v>222</v>
+        <v>115</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4563,33 +4580,33 @@
         <v>45124</v>
       </c>
       <c r="B236" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D236" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E236" s="6">
-        <v>115</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B237" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E237" s="6">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -4597,33 +4614,33 @@
         <v>45125</v>
       </c>
       <c r="B238" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E238" s="6">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B239" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E239" s="6">
-        <v>162</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -4631,33 +4648,33 @@
         <v>45126</v>
       </c>
       <c r="B240" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E240" s="6">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B241" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E241" s="6">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -4665,33 +4682,33 @@
         <v>45127</v>
       </c>
       <c r="B242" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D242" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E242" s="6">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B243" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E243" s="6">
-        <v>100</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -4699,33 +4716,33 @@
         <v>45128</v>
       </c>
       <c r="B244" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E244" s="6">
-        <v>236</v>
+        <v>105</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B245" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E245" s="6">
-        <v>105</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,33 +4750,33 @@
         <v>45129</v>
       </c>
       <c r="B246" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E246" s="6">
-        <v>235</v>
+        <v>115</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
-        <v>45129</v>
+        <v>45131</v>
       </c>
       <c r="B247" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E247" s="6">
-        <v>115</v>
+        <v>300</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -4767,16 +4784,16 @@
         <v>45131</v>
       </c>
       <c r="B248" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E248" s="6">
-        <v>300</v>
+        <v>189</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,33 +4801,33 @@
         <v>45131</v>
       </c>
       <c r="B249" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E249" s="6">
-        <v>189</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B250" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D250" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E250" s="6">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -4818,16 +4835,16 @@
         <v>45132</v>
       </c>
       <c r="B251" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E251" s="6">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -4835,33 +4852,33 @@
         <v>45132</v>
       </c>
       <c r="B252" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E252" s="6">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B253" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D253" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E253" s="6">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,33 +4886,33 @@
         <v>45133</v>
       </c>
       <c r="B254" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E254" s="6">
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B255" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E255" s="6">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -4903,33 +4920,33 @@
         <v>45134</v>
       </c>
       <c r="B256" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E256" s="6">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B257" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E257" s="6">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -4937,33 +4954,33 @@
         <v>45135</v>
       </c>
       <c r="B258" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E258" s="6">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="B259" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E259" s="6">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -4971,33 +4988,33 @@
         <v>45138</v>
       </c>
       <c r="B260" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E260" s="6">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B261" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E261" s="6">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5005,33 +5022,33 @@
         <v>45139</v>
       </c>
       <c r="B262" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E262" s="6">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B263" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E263" s="6">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5039,33 +5056,33 @@
         <v>45140</v>
       </c>
       <c r="B264" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E264" s="6">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B265" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E265" s="6">
-        <v>73</v>
+        <v>141</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5073,33 +5090,33 @@
         <v>45141</v>
       </c>
       <c r="B266" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E266" s="6">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B267" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E267" s="6">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5107,33 +5124,33 @@
         <v>45142</v>
       </c>
       <c r="B268" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E268" s="6">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="B269" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E269" s="6">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5141,33 +5158,33 @@
         <v>45145</v>
       </c>
       <c r="B270" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D270" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E270" s="6">
-        <v>159</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B271" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E271" s="6">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,16 +5192,16 @@
         <v>45146</v>
       </c>
       <c r="B272" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E272" s="6">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5192,33 +5209,33 @@
         <v>45146</v>
       </c>
       <c r="B273" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E273" s="6">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B274" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E274" s="6">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5226,33 +5243,33 @@
         <v>45147</v>
       </c>
       <c r="B275" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D275" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E275" s="6">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B276" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E276" s="6">
-        <v>32</v>
+        <v>160</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5260,33 +5277,33 @@
         <v>45148</v>
       </c>
       <c r="B277" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D277" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E277" s="6">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B278" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D278" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E278" s="6">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5294,33 +5311,33 @@
         <v>45149</v>
       </c>
       <c r="B279" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E279" s="6">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B280" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D280" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E280" s="6">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5328,21 +5345,21 @@
         <v>45150</v>
       </c>
       <c r="B281" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D281" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E281" s="6">
-        <v>123</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
-        <v>45150</v>
+        <v>45152</v>
       </c>
       <c r="B282" s="8">
         <v>4367</v>
@@ -5350,28 +5367,28 @@
       <c r="C282" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="6" t="s">
+      <c r="D282" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E282" s="6">
-        <v>218</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
-        <v>45152</v>
+        <v>45154</v>
       </c>
       <c r="B283" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E283" s="6">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5379,16 +5396,16 @@
         <v>45154</v>
       </c>
       <c r="B284" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D284" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E284" s="6">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5396,33 +5413,33 @@
         <v>45154</v>
       </c>
       <c r="B285" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E285" s="6">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B286" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E286" s="6">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -5430,33 +5447,33 @@
         <v>45155</v>
       </c>
       <c r="B287" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D287" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E287" s="6">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B288" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E288" s="6">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -5464,33 +5481,33 @@
         <v>45156</v>
       </c>
       <c r="B289" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D289" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E289" s="6">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
-        <v>45156</v>
+        <v>45157</v>
       </c>
       <c r="B290" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E290" s="6">
-        <v>198</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5498,33 +5515,33 @@
         <v>45157</v>
       </c>
       <c r="B291" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D291" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E291" s="6">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="B292" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E292" s="6">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5532,16 +5549,16 @@
         <v>45159</v>
       </c>
       <c r="B293" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D293" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E293" s="6">
-        <v>55</v>
+        <v>160</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5549,33 +5566,33 @@
         <v>45159</v>
       </c>
       <c r="B294" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E294" s="6">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="B295" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E295" s="6">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5583,16 +5600,16 @@
         <v>45160</v>
       </c>
       <c r="B296" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D296" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E296" s="6">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -5600,33 +5617,33 @@
         <v>45160</v>
       </c>
       <c r="B297" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D297" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E297" s="6">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="B298" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E298" s="6">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -5634,33 +5651,33 @@
         <v>45161</v>
       </c>
       <c r="B299" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D299" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E299" s="6">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B300" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E300" s="6">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -5668,33 +5685,33 @@
         <v>45162</v>
       </c>
       <c r="B301" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D301" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E301" s="6">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B302" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E302" s="6">
-        <v>45</v>
+        <v>167</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -5702,33 +5719,33 @@
         <v>45163</v>
       </c>
       <c r="B303" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D303" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E303" s="6">
-        <v>167</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B304" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E304" s="6">
-        <v>52</v>
+        <v>202</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -5736,16 +5753,16 @@
         <v>45166</v>
       </c>
       <c r="B305" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D305" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E305" s="6">
-        <v>202</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5753,16 +5770,16 @@
         <v>45166</v>
       </c>
       <c r="B306" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D306" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E306" s="6">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5770,33 +5787,33 @@
         <v>45166</v>
       </c>
       <c r="B307" s="8">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D307" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E307" s="6">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="B308" s="8">
-        <v>4365</v>
+        <v>4356</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E308" s="6">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -5804,16 +5821,16 @@
         <v>45167</v>
       </c>
       <c r="B309" s="8">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D309" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E309" s="6">
-        <v>150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -5821,33 +5838,33 @@
         <v>45167</v>
       </c>
       <c r="B310" s="8">
-        <v>4357</v>
+        <v>4367</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D310" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E310" s="6">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="B311" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D311" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E311" s="6">
-        <v>57</v>
+        <v>141</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -5855,33 +5872,33 @@
         <v>45168</v>
       </c>
       <c r="B312" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D312" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E312" s="6">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
-        <v>45168</v>
+        <v>45169</v>
       </c>
       <c r="B313" s="8">
-        <v>4367</v>
+        <v>4356</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D313" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E313" s="6">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -5889,32 +5906,15 @@
         <v>45169</v>
       </c>
       <c r="B314" s="8">
-        <v>4356</v>
+        <v>4367</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D314" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E314" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="7">
-        <v>45169</v>
-      </c>
-      <c r="B315" s="8">
-        <v>4367</v>
-      </c>
-      <c r="C315" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D315" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E315" s="6">
         <v>100</v>
       </c>
     </row>

--- a/DATOS_VENTA_23.xlsx
+++ b/DATOS_VENTA_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\ESPECIALIZACION DATA ANALYTICS\dataops\trabajo_final_dataops2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DAFD3E-94EC-47F0-B2F4-697D63B8608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12211E1-5583-41C4-9BC5-FB78C0DCDDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{298EFFE4-52CD-4160-8C02-56F0080C6DFB}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
